--- a/biology/Médecine/Santé_maternelle_au_Rwanda/Santé_maternelle_au_Rwanda.xlsx
+++ b/biology/Médecine/Santé_maternelle_au_Rwanda/Santé_maternelle_au_Rwanda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_maternelle_au_Rwanda</t>
+          <t>Santé_maternelle_au_Rwanda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principaux aspects de santé maternelle sont les soins prénatals, les soins post-natals, la planification familiale et la préconception
-Le Rwanda a institutionnalisé avec succès de la financement basé sur les résultats (FBR) pour améliorer les soins prénatals dans les plusieurs provinces du pays [1] .
+Le Rwanda a institutionnalisé avec succès de la financement basé sur les résultats (FBR) pour améliorer les soins prénatals dans les plusieurs provinces du pays  .
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_maternelle_au_Rwanda</t>
+          <t>Santé_maternelle_au_Rwanda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Livraison institutionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'accouchement en institution contribue à réduire le taux de mortalité infantile. Selon l'UNICEF la couverture de l'accouchement institutionnel est de 69% en 2006-2010 au Rwanda[2] .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'accouchement en institution contribue à réduire le taux de mortalité infantile. Selon l'UNICEF la couverture de l'accouchement institutionnel est de 69% en 2006-2010 au Rwanda .
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sant%C3%A9_maternelle_au_Rwanda</t>
+          <t>Santé_maternelle_au_Rwanda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ World Health Organization, Community performance-based financing to improve maternal health outcomes: Experiences from Rwanda, 2018 (lire en ligne)
